--- a/Top IT Job Titles March 2018.xlsx
+++ b/Top IT Job Titles March 2018.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anabela Goncalves\Documents\01 - RMIT\01 - Introduction to Information Technology\Assessments\Assessment Task 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D96939-3C54-4EC8-964A-B2B52D2AB016}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Barchart" sheetId="2" r:id="rId2"/>
-    <sheet name="Filters" sheetId="3" r:id="rId4"/>
+    <sheet name="Filters" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
   <si>
     <t>Title</t>
   </si>
@@ -51,7 +60,7 @@
     <t>Front End Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">Mar.  24, 2017  - Mar.  23, 2018  (Data not available after  Mar.  21, 2018)</t>
+    <t>Mar.  24, 2017  - Mar.  23, 2018  (Data not available after  Mar.  21, 2018)</t>
   </si>
   <si>
     <t>Java Developer</t>
@@ -666,8 +675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -677,6 +685,7 @@
       <b/>
       <sz val="16"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -697,22 +706,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -724,18 +746,239 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>Top Titles</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Solutions Architect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Graphic Designer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>.Net Developer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Systems Engineer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Service Desk Analyst</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Front End Developer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Java Developer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Systems Administrator</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Network Engineer</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Test Analyst</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Senior Net Developer</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Senior Java Developer</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Senior Systems Engineer</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Web Developer</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Senior Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Full Stack Developer</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Service Delivery Manager</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Software Developer</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Senior Network Engineer</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Ux Designer</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Senior Front End Developer</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Developer</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Php Developer</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Senior Test Analyst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47BD-4D61-A355-259E14A06859}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -745,35 +988,8 @@
           <c:showBubbleSize val="0"/>
           <c:separator>
 </c:separator>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Data'!$A$2:$A$26</c:f>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Data'!$B$2:$B$26</c:f>
-            </c:numRef>
-          </c:val>
-        </ser>
+        <c:gapWidth val="150"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:barChart>
@@ -783,14 +999,17 @@
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -798,8 +1017,10 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="t"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
@@ -809,6 +1030,7 @@
     </c:plotArea>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -818,7 +1040,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -833,9 +1055,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Barchart"/>
+        <xdr:cNvPr id="2" name="Barchart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -847,25 +1075,321 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -875,8 +1399,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -884,8 +1408,8 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -895,16 +1419,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>808</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
@@ -917,8 +1441,8 @@
         <v>120353</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
@@ -931,8 +1455,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
@@ -942,16 +1466,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>713</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1">
@@ -961,8 +1485,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1">
@@ -972,1528 +1496,1528 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>555</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>539</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>481</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>478</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>464</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>381</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>371</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1">
         <v>344</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>338</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>337</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>336</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>316</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>303</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>277</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="1">
         <v>275</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>79</v>
       </c>
       <c r="B72" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>81</v>
       </c>
       <c r="B74" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>83</v>
       </c>
       <c r="B76" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>84</v>
       </c>
       <c r="B77" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>85</v>
       </c>
       <c r="B78" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>86</v>
       </c>
       <c r="B79" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>87</v>
       </c>
       <c r="B80" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>90</v>
       </c>
       <c r="B83" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>97</v>
       </c>
       <c r="B90" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>98</v>
       </c>
       <c r="B91" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>100</v>
       </c>
       <c r="B93" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>102</v>
       </c>
       <c r="B95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>107</v>
       </c>
       <c r="B100" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>108</v>
       </c>
       <c r="B101" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>124</v>
       </c>
       <c r="B117" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>125</v>
       </c>
       <c r="B118" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>127</v>
       </c>
       <c r="B120" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>128</v>
       </c>
       <c r="B121" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>129</v>
       </c>
       <c r="B122" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>130</v>
       </c>
       <c r="B123" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>131</v>
       </c>
       <c r="B124" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>132</v>
       </c>
       <c r="B125" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>134</v>
       </c>
       <c r="B127" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>135</v>
       </c>
       <c r="B128" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>136</v>
       </c>
       <c r="B129" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>137</v>
       </c>
       <c r="B130" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>138</v>
       </c>
       <c r="B131" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>139</v>
       </c>
       <c r="B132" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>140</v>
       </c>
       <c r="B133" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>141</v>
       </c>
       <c r="B134" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>142</v>
       </c>
       <c r="B135" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>143</v>
       </c>
       <c r="B136" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>144</v>
       </c>
       <c r="B137" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>145</v>
       </c>
       <c r="B138" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>146</v>
       </c>
       <c r="B139" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>147</v>
       </c>
       <c r="B140" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>148</v>
       </c>
       <c r="B141" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>149</v>
       </c>
       <c r="B142" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>150</v>
       </c>
       <c r="B143" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>151</v>
       </c>
       <c r="B144" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>152</v>
       </c>
       <c r="B145" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>153</v>
       </c>
       <c r="B146" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>154</v>
       </c>
       <c r="B147" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>155</v>
       </c>
       <c r="B148" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>156</v>
       </c>
       <c r="B149" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>157</v>
       </c>
       <c r="B150" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>158</v>
       </c>
       <c r="B151" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>159</v>
       </c>
       <c r="B152" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>160</v>
       </c>
       <c r="B153" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>161</v>
       </c>
       <c r="B154" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>162</v>
       </c>
       <c r="B155" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>163</v>
       </c>
       <c r="B156" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>164</v>
       </c>
       <c r="B157" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>165</v>
       </c>
       <c r="B158" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
         <v>166</v>
       </c>
       <c r="B159" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>167</v>
       </c>
       <c r="B160" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>168</v>
       </c>
       <c r="B161" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>169</v>
       </c>
       <c r="B162" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>170</v>
       </c>
       <c r="B163" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>171</v>
       </c>
       <c r="B164" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>172</v>
       </c>
       <c r="B165" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>173</v>
       </c>
       <c r="B166" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>174</v>
       </c>
       <c r="B167" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>175</v>
       </c>
       <c r="B168" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>176</v>
       </c>
       <c r="B169" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>177</v>
       </c>
       <c r="B170" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>178</v>
       </c>
       <c r="B171" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>179</v>
       </c>
       <c r="B172" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>180</v>
       </c>
       <c r="B173" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>181</v>
       </c>
       <c r="B174" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>182</v>
       </c>
       <c r="B175" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>183</v>
       </c>
       <c r="B176" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>184</v>
       </c>
       <c r="B177" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>185</v>
       </c>
       <c r="B178" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>186</v>
       </c>
       <c r="B179" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>187</v>
       </c>
       <c r="B180" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>188</v>
       </c>
       <c r="B181" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>189</v>
       </c>
       <c r="B182" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>190</v>
       </c>
       <c r="B183" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>191</v>
       </c>
       <c r="B184" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>192</v>
       </c>
       <c r="B185" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>193</v>
       </c>
       <c r="B186" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>194</v>
       </c>
       <c r="B187" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>195</v>
       </c>
       <c r="B188" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>196</v>
       </c>
       <c r="B189" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>197</v>
       </c>
       <c r="B190" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>198</v>
       </c>
       <c r="B191" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>199</v>
       </c>
       <c r="B192" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>200</v>
       </c>
       <c r="B193" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>201</v>
       </c>
       <c r="B194" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>202</v>
       </c>
       <c r="B195" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>203</v>
       </c>
       <c r="B196" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>204</v>
       </c>
       <c r="B197" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>205</v>
       </c>
       <c r="B198" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>206</v>
       </c>
       <c r="B199" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
         <v>207</v>
       </c>
       <c r="B200" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
         <v>208</v>
       </c>
       <c r="B201" s="1">
@@ -2501,114 +3025,113 @@
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>120353</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="21">
       <c r="A1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>